--- a/EroomRent-TestCase.xlsx
+++ b/EroomRent-TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test-case-report-eroomrent.in" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="67">
   <si>
     <t>Test Scanerio</t>
   </si>
@@ -133,6 +133,90 @@
   </si>
   <si>
     <t>header should common for home, about us, owner, tenant, contact us and faq</t>
+  </si>
+  <si>
+    <t>Test Search component of EroomRent.in</t>
+  </si>
+  <si>
+    <t>TC103</t>
+  </si>
+  <si>
+    <t>Verify Search Form Title</t>
+  </si>
+  <si>
+    <t>Title should be relevent to search form (eg find room, float hostel and pg related)</t>
+  </si>
+  <si>
+    <t>Verify What do you want to search dropdownlist</t>
+  </si>
+  <si>
+    <t>Verify SubCategory dropdownlist</t>
+  </si>
+  <si>
+    <t>Verfify Location dropdownlist</t>
+  </si>
+  <si>
+    <t>It should contain category options (eg Flat, PG, HOSTEL, Room), default option should be "What do you want to search"</t>
+  </si>
+  <si>
+    <t>Verify Combination of Category and SubCategory dropdownlist with search button</t>
+  </si>
+  <si>
+    <t>It should display eroor message that "select location"</t>
+  </si>
+  <si>
+    <t>Verify Combinationof of Category, Subcategory and Location dropdownlist with Search Button</t>
+  </si>
+  <si>
+    <t>Search record to select only Category dropdownlist</t>
+  </si>
+  <si>
+    <t>it should display error message that select sub category</t>
+  </si>
+  <si>
+    <t>Search record to select only Sub category dropdownlist</t>
+  </si>
+  <si>
+    <t>It should not display any item before selecting category</t>
+  </si>
+  <si>
+    <t>Search record to select location dropdownlist</t>
+  </si>
+  <si>
+    <t>It should display message select category first</t>
+  </si>
+  <si>
+    <t>Verify Combination of Category and location dropdownlist with search button</t>
+  </si>
+  <si>
+    <t>It should display error message that select sub category first</t>
+  </si>
+  <si>
+    <t>Verify combination pf Subcategory and location</t>
+  </si>
+  <si>
+    <t>Subcategory should not display any item before selection of category</t>
+  </si>
+  <si>
+    <t>as per expected</t>
+  </si>
+  <si>
+    <t>Irrelevant for commercial property</t>
+  </si>
+  <si>
+    <t>It should contain sub category items according to category , default option should be "Select Sub Category"</t>
+  </si>
+  <si>
+    <t>It should contain list of locations of Indore City only  and default option should be "Select Location"</t>
+  </si>
+  <si>
+    <t>It should display record according to category, sub category and location into another page, if no record found then show message this type of property is not available</t>
+  </si>
+  <si>
+    <t>wrong error message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">provide error message </t>
   </si>
 </sst>
 </file>
@@ -488,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -702,12 +786,306 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="86" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="110.7109375" customWidth="1"/>
+    <col min="5" max="5" width="43.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" customWidth="1"/>
+    <col min="8" max="8" width="43.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44419</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
